--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3759.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3759.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.251961018867318</v>
+        <v>0.5977047085762024</v>
       </c>
       <c r="B1">
-        <v>2.530448714754088</v>
+        <v>1.184797525405884</v>
       </c>
       <c r="C1">
-        <v>3.950024191092556</v>
+        <v>5.283000946044922</v>
       </c>
       <c r="D1">
-        <v>3.765081514896773</v>
+        <v>1.806358456611633</v>
       </c>
       <c r="E1">
-        <v>1.151849088905159</v>
+        <v>1.159831762313843</v>
       </c>
     </row>
   </sheetData>
